--- a/forecast_summary_B0BTQ3SVFR.xlsx
+++ b/forecast_summary_B0BTQ3SVFR.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="n">
         <v>95.84660907749611</v>
       </c>
       <c r="D2" t="n">
-        <v>183.283633472695</v>
+        <v>182.1010412768424</v>
       </c>
       <c r="E2" t="n">
         <v>119</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>107.3170580842298</v>
       </c>
       <c r="D3" t="n">
-        <v>195.7557103147335</v>
+        <v>196.9687515361808</v>
       </c>
       <c r="E3" t="n">
         <v>118</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>126.2997323527635</v>
       </c>
       <c r="D4" t="n">
-        <v>210.1320316680113</v>
+        <v>211.795588314128</v>
       </c>
       <c r="E4" t="n">
         <v>115</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="n">
         <v>125.5843176555135</v>
       </c>
       <c r="D5" t="n">
-        <v>216.7213457046944</v>
+        <v>210.9338147214447</v>
       </c>
       <c r="E5" t="n">
         <v>95</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" t="n">
         <v>107.0069690675594</v>
       </c>
       <c r="D6" t="n">
-        <v>187.0456922871561</v>
+        <v>195.1589300225172</v>
       </c>
       <c r="E6" t="n">
         <v>94</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>93.27873183105143</v>
       </c>
       <c r="D7" t="n">
-        <v>184.1552979862987</v>
+        <v>178.465877043831</v>
       </c>
       <c r="E7" t="n">
         <v>96</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" t="n">
         <v>94.84416499576798</v>
       </c>
       <c r="D8" t="n">
-        <v>183.3736181193245</v>
+        <v>179.9597415066936</v>
       </c>
       <c r="E8" t="n">
         <v>98</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>99.47014109768155</v>
       </c>
       <c r="D9" t="n">
-        <v>185.3394783683628</v>
+        <v>187.6058779401563</v>
       </c>
       <c r="E9" t="n">
         <v>97</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>95.64367165728784</v>
       </c>
       <c r="D10" t="n">
-        <v>180.549085436233</v>
+        <v>180.9969930010518</v>
       </c>
       <c r="E10" t="n">
         <v>96</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>92.61863649183942</v>
       </c>
       <c r="D11" t="n">
-        <v>178.6866184608745</v>
+        <v>180.2477945424515</v>
       </c>
       <c r="E11" t="n">
         <v>95</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>106.7234028157253</v>
       </c>
       <c r="D12" t="n">
-        <v>189.9823657678807</v>
+        <v>193.2860132901419</v>
       </c>
       <c r="E12" t="n">
         <v>99</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" t="n">
         <v>133.7295035907777</v>
       </c>
       <c r="D13" t="n">
-        <v>224.0051969188735</v>
+        <v>220.7865818559247</v>
       </c>
       <c r="E13" t="n">
         <v>98</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>149.1587357726598</v>
       </c>
       <c r="D14" t="n">
-        <v>239.073241849853</v>
+        <v>236.8786064137295</v>
       </c>
       <c r="E14" t="n">
         <v>98</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>140.1774381842914</v>
       </c>
       <c r="D15" t="n">
-        <v>232.0946342336774</v>
+        <v>226.0288906500361</v>
       </c>
       <c r="E15" t="n">
         <v>99</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>126.2772858469062</v>
       </c>
       <c r="D16" t="n">
-        <v>208.8248528734037</v>
+        <v>210.7601212270815</v>
       </c>
       <c r="E16" t="n">
         <v>97</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C17" t="n">
         <v>137.094665018663</v>
       </c>
       <c r="D17" t="n">
-        <v>218.3019702468023</v>
+        <v>221.3455835535098</v>
       </c>
       <c r="E17" t="n">
         <v>99</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>172.9196196870044</v>
       </c>
       <c r="D18" t="n">
-        <v>268.1603506830036</v>
+        <v>262.7390157957538</v>
       </c>
       <c r="E18" t="n">
         <v>94</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>200.2042496227983</v>
       </c>
       <c r="D19" t="n">
-        <v>285.4059210719656</v>
+        <v>283.5152059145481</v>
       </c>
       <c r="E19" t="n">
         <v>93</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>191.4512755692357</v>
       </c>
       <c r="D20" t="n">
-        <v>279.8245165368147</v>
+        <v>279.0676424901468</v>
       </c>
       <c r="E20" t="n">
         <v>101</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>160.0386148305438</v>
       </c>
       <c r="D21" t="n">
-        <v>246.1994212847983</v>
+        <v>251.2474798942189</v>
       </c>
       <c r="E21" t="n">
         <v>91</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550 UD AC</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1968</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>918</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>489</t>
         </is>
       </c>
     </row>
